--- a/biology/Zoologie/Hamadasuchus/Hamadasuchus.xlsx
+++ b/biology/Zoologie/Hamadasuchus/Hamadasuchus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hamadasuchus rebouli
 Hamadasuchus est un genre fossile de Crocodyliformes sébéciens. L'espèce type et seule espèce du genre est Hamadasuchus rebouli.
@@ -512,9 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des fossiles ont été découverts dans l'affleurement de la formation Kem Kem, dans le Sud-Est du Maroc[1]. Ces lits remontent aux stades Albien et Cénomanien du Crétacé supérieur. Il a d'abord été attribué à la famille des Trematochampsidae[2]. Les caractéristiques diagnostiques du genre comprennent ses dents comprimées latéro-médialement et dentelées. Il avait un museau profond et une dentition légèrement hétérodonte avec trois morphologies dentaires distinctes présentes dans des sections de la mâchoire inférieure[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des fossiles ont été découverts dans l'affleurement de la formation Kem Kem, dans le Sud-Est du Maroc. Ces lits remontent aux stades Albien et Cénomanien du Crétacé supérieur. Il a d'abord été attribué à la famille des Trematochampsidae. Les caractéristiques diagnostiques du genre comprennent ses dents comprimées latéro-médialement et dentelées. Il avait un museau profond et une dentition légèrement hétérodonte avec trois morphologies dentaires distinctes présentes dans des sections de la mâchoire inférieure.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon Paleobiology Database et GBIF, une seule espèce est référencée :
-Hamadasuchus rebouli Buffetaut, 1994 - espèce type[2],[4],[5],[6],[note 1].
+Hamadasuchus rebouli Buffetaut, 1994 - espèce type[note 1].
 Une autre espèce, † Hamadasuchus taouzensis? Nicholl et al., 2021, est parfois mentionnée.[réf. nécessaire]
 </t>
         </is>
@@ -576,9 +592,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Hamadasuchus et l'espèce Hamadasuchus rebouli sont décrits en 1994 par le paléontologue français Éric Buffetaut (1950-)[2],[4],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Hamadasuchus et l'espèce Hamadasuchus rebouli sont décrits en 1994 par le paléontologue français Éric Buffetaut (1950-).
 </t>
         </is>
       </c>
